--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc809021c99c5107/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC0D074-5365-4DB5-8DED-6C221A70431F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{DEC0D074-5365-4DB5-8DED-6C221A70431F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8981A603-1C72-405B-8A10-37C6D63D1F2F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{73F3F0E4-8BB7-481B-BCB4-69B735323FE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="person" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,24 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Birthdate</t>
   </si>
   <si>
     <t>Wellington</t>
   </si>
   <si>
-    <t>12/23/1973</t>
-  </si>
-  <si>
     <t>Roina</t>
   </si>
   <si>
-    <t>11/17/1977</t>
+    <t>Birthday</t>
   </si>
 </sst>
 </file>
@@ -87,8 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,36 +405,41 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>27021</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>28446</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>